--- a/Vedomost.xlsx
+++ b/Vedomost.xlsx
@@ -976,13 +976,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
@@ -1028,11 +1028,11 @@
         <v>5000</v>
       </c>
       <c r="E3" s="19">
-        <v>7200</v>
-      </c>
-      <c r="F3" s="10">
+        <v>72001</v>
+      </c>
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F33" si="0">D3+E3</f>
-        <v>12200</v>
+        <v>77001</v>
       </c>
       <c r="G3" s="10">
         <v>89160000000</v>
@@ -1739,11 +1739,11 @@
       </c>
       <c r="E33" s="5">
         <f>SUM(E3:E32)</f>
-        <v>784540</v>
+        <v>849341</v>
       </c>
       <c r="F33" s="25">
         <f t="shared" si="0"/>
-        <v>1303250</v>
+        <v>1368051</v>
       </c>
       <c r="G33" s="5"/>
     </row>
